--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AVERAGE_1_9.xlsx
@@ -2368,7 +2368,7 @@
         <v>6.942957493752444</v>
       </c>
       <c r="AG17">
-        <v>2.133862376612439</v>
+        <v>1.164487295548811</v>
       </c>
       <c r="AH17">
         <v>1.666553973046048</v>
@@ -2451,19 +2451,19 @@
         <v>17.43645097609996</v>
       </c>
       <c r="AG18">
-        <v>-2.182504726469814</v>
+        <v>-13.80331328666087</v>
       </c>
       <c r="AH18">
-        <v>-0.2638638106667313</v>
+        <v>-7.134843267358026</v>
       </c>
       <c r="AI18">
-        <v>-5.603015914113896</v>
+        <v>2.473469344955737</v>
       </c>
       <c r="AJ18">
-        <v>2.932994663878907</v>
+        <v>3.285232806602445</v>
       </c>
       <c r="AK18">
-        <v>1.773820722495745</v>
+        <v>1.56617146116742</v>
       </c>
       <c r="AL18">
         <v>1.879266440112803</v>
@@ -2522,31 +2522,31 @@
         <v>17.43645097609996</v>
       </c>
       <c r="AG19">
-        <v>-1.567436212005646</v>
+        <v>-15.84873744315486</v>
       </c>
       <c r="AH19">
-        <v>3.567390164492279</v>
+        <v>-7.639693340922394</v>
       </c>
       <c r="AI19">
-        <v>-13.74537331374777</v>
+        <v>7.549216998964536</v>
       </c>
       <c r="AJ19">
-        <v>2.894715150804616</v>
+        <v>4.648946574958646</v>
       </c>
       <c r="AK19">
-        <v>3.694490460041355</v>
+        <v>0.9875809772451838</v>
       </c>
       <c r="AL19">
-        <v>-0.04532879466145889</v>
+        <v>-6.539839435602945</v>
       </c>
       <c r="AM19">
-        <v>1.312381597381518</v>
+        <v>-1.781446606796455</v>
       </c>
       <c r="AN19">
-        <v>-0.7538332529782865</v>
+        <v>4.03207823671119</v>
       </c>
       <c r="AO19">
-        <v>-2.404913754290983</v>
+        <v>-3.159022715375703</v>
       </c>
       <c r="AP19">
         <v>-2.620683231370946</v>
@@ -2589,38 +2589,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>-13.74537331374777</v>
-      </c>
       <c r="AJ20">
-        <v>2.780291080431385</v>
+        <v>4.648946574958646</v>
       </c>
       <c r="AK20">
-        <v>4.454912352678764</v>
+        <v>1.116210619940317</v>
       </c>
       <c r="AL20">
-        <v>1.357180328069307</v>
+        <v>-9.022444160002753</v>
       </c>
       <c r="AM20">
-        <v>8.701423588527524</v>
+        <v>0.1457978421785855</v>
       </c>
       <c r="AN20">
-        <v>-4.784481399264983</v>
+        <v>19.81459356491751</v>
       </c>
       <c r="AO20">
-        <v>-1.736119732506514</v>
+        <v>-11.32548012975856</v>
       </c>
       <c r="AP20">
-        <v>-3.179374983142691</v>
+        <v>-5.419975784955133</v>
       </c>
       <c r="AQ20">
-        <v>-3.324604708321111</v>
+        <v>-8.265777451316225</v>
       </c>
       <c r="AR20">
-        <v>-2.598185084325777</v>
+        <v>1.166938248772098</v>
       </c>
       <c r="AS20">
-        <v>-2.901570548279864</v>
+        <v>-2.536896655888554</v>
       </c>
       <c r="AT20">
         <v>-3.036556262700274</v>
@@ -2651,38 +2648,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>8.701423588527524</v>
-      </c>
       <c r="AN21">
-        <v>-6.233844019539636</v>
+        <v>19.81459356491753</v>
       </c>
       <c r="AO21">
-        <v>-0.9684463096805151</v>
+        <v>-12.78384719316791</v>
       </c>
       <c r="AP21">
-        <v>-1.988868743058014</v>
+        <v>-5.609921819622055</v>
       </c>
       <c r="AQ21">
-        <v>2.584340770833982</v>
+        <v>-10.92701686886082</v>
       </c>
       <c r="AR21">
-        <v>-3.071148328823314</v>
+        <v>16.68718678695835</v>
       </c>
       <c r="AS21">
-        <v>-3.268007849027199</v>
+        <v>1.532774510490742</v>
       </c>
       <c r="AT21">
-        <v>-2.51939929628594</v>
+        <v>1.613705666912457</v>
       </c>
       <c r="AU21">
-        <v>-2.440053088416461</v>
+        <v>-4.691918671600959</v>
       </c>
       <c r="AV21">
-        <v>-1.287508943286542</v>
+        <v>1.758584501904159</v>
       </c>
       <c r="AW21">
-        <v>-2.859191689251428</v>
+        <v>-3.187937113772676</v>
       </c>
       <c r="AX21">
         <v>-2.953443685011514</v>
@@ -2701,78 +2695,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>2.584340770834004</v>
-      </c>
       <c r="AR22">
-        <v>-4.259781721149447</v>
+        <v>16.68718678695833</v>
       </c>
       <c r="AS22">
-        <v>-4.919323712811796</v>
+        <v>0.9350043511181738</v>
       </c>
       <c r="AT22">
-        <v>-4.811655446013663</v>
+        <v>1.741055737501407</v>
       </c>
       <c r="AU22">
-        <v>-0.6673203033532138</v>
+        <v>-6.710877805392867</v>
       </c>
       <c r="AV22">
-        <v>-4.200823682253607</v>
+        <v>11.30020092100839</v>
       </c>
       <c r="AW22">
-        <v>-2.883845406532493</v>
+        <v>-7.130744761216434</v>
       </c>
       <c r="AX22">
-        <v>-2.112604539331953</v>
+        <v>-2.069018842407955</v>
       </c>
       <c r="AY22">
-        <v>-0.6052121327035698</v>
+        <v>1.303232119845266</v>
       </c>
       <c r="AZ22">
-        <v>0.1893861904177951</v>
+        <v>0.5908161348962215</v>
       </c>
       <c r="BA22">
-        <v>-1.131442475565558</v>
+        <v>-1.60374568949776</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>-0.6673203033532249</v>
-      </c>
       <c r="AV23">
-        <v>-5.158801902106525</v>
+        <v>11.30020092100841</v>
       </c>
       <c r="AW23">
-        <v>-2.556891673586448</v>
+        <v>-7.79378399253422</v>
       </c>
       <c r="AX23">
-        <v>-1.449035973973423</v>
+        <v>-1.378691486317696</v>
       </c>
       <c r="AY23">
-        <v>-0.8972538974235111</v>
+        <v>4.240665037474844</v>
       </c>
       <c r="AZ23">
-        <v>0.1126281723122791</v>
+        <v>2.127099006366806</v>
       </c>
       <c r="BA23">
-        <v>-1.463023257418061</v>
+        <v>-7.500482081224524</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>-0.8972538974235222</v>
-      </c>
       <c r="AZ24">
-        <v>-0.01997704183978044</v>
+        <v>2.127099006366828</v>
       </c>
       <c r="BA24">
-        <v>-0.5747909923521255</v>
+        <v>-8.039426590486908</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AVERAGE_1_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2233 +535,1906 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="B3">
+        <v>2.252078606542485</v>
+      </c>
+      <c r="C3">
+        <v>19.1981274365808</v>
+      </c>
+      <c r="D3">
+        <v>0.5079568386449518</v>
+      </c>
+      <c r="E3">
+        <v>-5.592633745595466</v>
+      </c>
+      <c r="F3">
+        <v>-0.9140166223623458</v>
+      </c>
+      <c r="G3">
+        <v>-1.172517689227226</v>
+      </c>
+      <c r="H3">
+        <v>-1.770819286696002</v>
+      </c>
+      <c r="I3">
+        <v>-2.631732184580982</v>
+      </c>
+      <c r="J3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="K3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="L3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="M3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="N3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="O3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="P3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="Q3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="R3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="S3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="T3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="U3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="V3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="W3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="X3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="Y3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="Z3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AA3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AB3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AC3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AD3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AE3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AF3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AG3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AH3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AI3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AJ3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AK3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AL3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AM3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AN3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AO3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AP3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AQ3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AR3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AS3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AT3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AU3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AV3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AW3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AX3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AY3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AZ3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="BA3">
+        <v>-3.712113773657133</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>4.930115226412335</v>
+        <v>40543</v>
       </c>
       <c r="C4">
-        <v>4.680314326616597</v>
+        <v>19.19812743658083</v>
       </c>
       <c r="D4">
-        <v>4.717522427777077</v>
+        <v>1.117679358007928</v>
       </c>
       <c r="E4">
-        <v>4.717522427777077</v>
+        <v>-9.964084247724713</v>
       </c>
       <c r="F4">
-        <v>3.33720699899116</v>
+        <v>5.639535270494123</v>
       </c>
       <c r="G4">
-        <v>3.33720699899116</v>
+        <v>-5.440152375872276</v>
       </c>
       <c r="H4">
-        <v>3.33720699899116</v>
+        <v>2.585942866987878</v>
       </c>
       <c r="I4">
-        <v>3.33720699899116</v>
+        <v>2.504381985397752</v>
       </c>
       <c r="J4">
-        <v>3.33720699899116</v>
+        <v>1.62008141490082</v>
       </c>
       <c r="K4">
-        <v>3.33720699899116</v>
+        <v>1.62008141490082</v>
       </c>
       <c r="L4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="M4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="N4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="O4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="P4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="Q4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="R4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="S4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="T4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="U4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="V4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="W4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="X4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="Y4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="Z4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AA4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AB4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AC4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AD4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AE4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AF4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AG4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AH4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AI4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AJ4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AK4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AL4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AM4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AN4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AO4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AP4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AQ4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AR4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AS4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AT4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AU4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AV4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AW4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AX4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AY4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AZ4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="BA4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B5">
-        <v>0.3630458632513767</v>
-      </c>
-      <c r="C5">
-        <v>5.021907707863549</v>
-      </c>
-      <c r="D5">
-        <v>1.457587285166628</v>
+        <v>40908</v>
       </c>
       <c r="E5">
-        <v>1.24900865781854</v>
+        <v>-9.964084247724703</v>
       </c>
       <c r="F5">
-        <v>0.6130849409560657</v>
+        <v>6.078725185418055</v>
       </c>
       <c r="G5">
-        <v>0.6130849409560657</v>
+        <v>-14.43639438706736</v>
       </c>
       <c r="H5">
-        <v>-0.4029460988799416</v>
+        <v>1.724360951547554</v>
       </c>
       <c r="I5">
-        <v>-0.4029460988799416</v>
+        <v>9.349082908138474</v>
       </c>
       <c r="J5">
-        <v>-0.4029460988799416</v>
+        <v>4.253963781362402</v>
       </c>
       <c r="K5">
-        <v>-0.4029460988799416</v>
+        <v>4.173723649544514</v>
       </c>
       <c r="L5">
-        <v>-0.4029460988799416</v>
+        <v>4.453070210728716</v>
       </c>
       <c r="M5">
-        <v>-0.4029460988799416</v>
+        <v>4.453070210728716</v>
       </c>
       <c r="N5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="O5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="P5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="Q5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="R5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="S5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="T5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="U5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="V5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="W5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="X5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="Y5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="Z5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AA5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AB5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AC5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AD5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AE5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AF5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AG5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AH5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AI5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AJ5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AK5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AL5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AM5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AN5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AO5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AP5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AQ5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AR5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AS5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AT5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AU5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AV5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AW5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AX5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AY5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AZ5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="BA5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B6">
-        <v>2.252078606542507</v>
-      </c>
-      <c r="C6">
-        <v>19.19812743658083</v>
-      </c>
-      <c r="D6">
-        <v>0.507956838644974</v>
-      </c>
-      <c r="E6">
-        <v>-5.592633745595466</v>
-      </c>
-      <c r="F6">
-        <v>-0.9140166223623569</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>-1.172517689227215</v>
+        <v>-14.43639438706738</v>
       </c>
       <c r="H6">
-        <v>-1.770819286696013</v>
+        <v>-1.670238739053054</v>
       </c>
       <c r="I6">
-        <v>-2.631732184580982</v>
+        <v>27.15801420548431</v>
       </c>
       <c r="J6">
-        <v>-3.712113773657133</v>
+        <v>-0.6955733540840225</v>
       </c>
       <c r="K6">
-        <v>-3.712113773657133</v>
+        <v>0.5389546843749926</v>
       </c>
       <c r="L6">
-        <v>-3.712113773657133</v>
+        <v>1.752870900283909</v>
       </c>
       <c r="M6">
-        <v>-3.712113773657133</v>
+        <v>1.425327874655236</v>
       </c>
       <c r="N6">
-        <v>-3.712113773657133</v>
+        <v>2.337267913147589</v>
       </c>
       <c r="O6">
-        <v>-3.712113773657133</v>
+        <v>2.45956484535661</v>
       </c>
       <c r="P6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="Q6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="R6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="S6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="T6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="U6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="V6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="W6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="X6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="Y6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="Z6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AA6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AB6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AC6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AD6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AE6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AF6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AG6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AH6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AI6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AJ6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AK6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AL6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AM6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AN6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AO6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AP6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AQ6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AR6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AS6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AT6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AU6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AV6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AW6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AX6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AY6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AZ6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="BA6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="C7">
-        <v>19.1981274365808</v>
-      </c>
-      <c r="D7">
-        <v>1.117679358007928</v>
-      </c>
-      <c r="E7">
-        <v>-9.964084247724703</v>
-      </c>
-      <c r="F7">
-        <v>5.6395352704941</v>
-      </c>
-      <c r="G7">
-        <v>-5.440152375872254</v>
-      </c>
-      <c r="H7">
-        <v>2.585942866987878</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>2.504381985397774</v>
+        <v>27.15801420548429</v>
       </c>
       <c r="J7">
-        <v>1.62008141490082</v>
+        <v>-2.652367538971778</v>
       </c>
       <c r="K7">
-        <v>1.62008141490082</v>
+        <v>-5.27893918837793</v>
       </c>
       <c r="L7">
-        <v>2.363997455008682</v>
+        <v>4.300339264728548</v>
       </c>
       <c r="M7">
-        <v>2.363997455008682</v>
+        <v>-4.232836797447703</v>
       </c>
       <c r="N7">
-        <v>2.363997455008682</v>
+        <v>-1.479696720105184</v>
       </c>
       <c r="O7">
-        <v>2.363997455008682</v>
+        <v>-1.188888712978431</v>
       </c>
       <c r="P7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="Q7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="R7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="S7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="T7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="U7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="V7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="W7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="X7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="Y7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="Z7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AA7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AB7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AC7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AD7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AE7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AF7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AG7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AH7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AI7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AJ7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AK7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AL7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AM7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AN7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AO7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AP7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AQ7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AR7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AS7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AT7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AU7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AV7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AW7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AX7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AY7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AZ7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="BA7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="E8">
-        <v>-9.964084247724692</v>
-      </c>
-      <c r="F8">
-        <v>6.078725185418077</v>
-      </c>
-      <c r="G8">
-        <v>-14.43639438706738</v>
-      </c>
-      <c r="H8">
-        <v>1.724360951547554</v>
-      </c>
-      <c r="I8">
-        <v>9.349082908138451</v>
-      </c>
-      <c r="J8">
-        <v>4.253963781362402</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>4.173723649544492</v>
+        <v>-5.27893918837793</v>
       </c>
       <c r="L8">
-        <v>4.453070210728693</v>
+        <v>6.251104717301592</v>
       </c>
       <c r="M8">
-        <v>4.453070210728693</v>
+        <v>-8.093075920532211</v>
       </c>
       <c r="N8">
-        <v>6.087058041562377</v>
+        <v>8.296896928314457</v>
       </c>
       <c r="O8">
-        <v>6.087058041562377</v>
+        <v>7.942828065321739</v>
       </c>
       <c r="P8">
-        <v>6.087058041562377</v>
+        <v>3.900127535411246</v>
       </c>
       <c r="Q8">
-        <v>6.087058041562377</v>
+        <v>3.948953894481644</v>
       </c>
       <c r="R8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="S8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="T8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="U8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="V8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="W8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="X8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="Y8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="Z8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AA8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AB8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AC8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AD8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AE8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AF8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AG8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AH8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AI8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AJ8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AK8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AL8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AM8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AN8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AO8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AP8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AQ8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AR8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AS8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AT8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AU8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AV8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AW8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AX8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AY8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AZ8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="BA8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>-14.43639438706739</v>
-      </c>
-      <c r="H9">
-        <v>-1.670238739053076</v>
-      </c>
-      <c r="I9">
-        <v>27.15801420548429</v>
-      </c>
-      <c r="J9">
-        <v>-0.6955733540840336</v>
-      </c>
-      <c r="K9">
-        <v>0.5389546843750148</v>
-      </c>
-      <c r="L9">
-        <v>1.752870900283909</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>1.425327874655236</v>
+        <v>-8.093075920532211</v>
       </c>
       <c r="N9">
-        <v>2.337267913147567</v>
+        <v>9.767994967583338</v>
       </c>
       <c r="O9">
-        <v>2.459564845356588</v>
+        <v>15.37760125310901</v>
       </c>
       <c r="P9">
-        <v>3.831642495756782</v>
+        <v>-2.092856741436244</v>
       </c>
       <c r="Q9">
-        <v>3.831642495756782</v>
+        <v>1.913895196850146</v>
       </c>
       <c r="R9">
-        <v>3.831642495756782</v>
+        <v>0.03947433952959933</v>
       </c>
       <c r="S9">
-        <v>3.831642495756782</v>
+        <v>-0.3952646468157739</v>
       </c>
       <c r="T9">
-        <v>3.831642495756782</v>
+        <v>-0.5740767529984647</v>
       </c>
       <c r="U9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="V9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="W9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="X9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="Y9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="Z9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AA9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AB9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AC9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AD9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AE9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AF9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AG9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AH9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AI9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AJ9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AK9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AL9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AM9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AN9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AO9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AP9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AQ9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AR9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AS9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AT9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AU9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AV9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AW9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AX9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AY9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AZ9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="BA9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>27.15801420548427</v>
-      </c>
-      <c r="J10">
-        <v>-2.652367538971745</v>
-      </c>
-      <c r="K10">
-        <v>-5.27893918837793</v>
-      </c>
-      <c r="L10">
-        <v>4.300339264728548</v>
-      </c>
-      <c r="M10">
-        <v>-4.232836797447693</v>
-      </c>
-      <c r="N10">
-        <v>-1.479696720105139</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>-1.188888712978442</v>
+        <v>15.37760125310903</v>
       </c>
       <c r="P10">
-        <v>-0.492746714819392</v>
+        <v>-1.385206263951655</v>
       </c>
       <c r="Q10">
-        <v>-0.492746714819392</v>
+        <v>6.974907992137958</v>
       </c>
       <c r="R10">
-        <v>-0.492746714819392</v>
+        <v>-1.259568900987029</v>
       </c>
       <c r="S10">
-        <v>-0.492746714819392</v>
+        <v>4.861901970954019</v>
       </c>
       <c r="T10">
-        <v>-0.492746714819392</v>
+        <v>2.192778679161966</v>
       </c>
       <c r="U10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="V10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="W10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="X10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="Y10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="Z10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AA10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AB10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AC10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AD10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AE10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AF10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AG10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AH10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AI10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AJ10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AK10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AL10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AM10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AN10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AO10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AP10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AQ10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AR10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AS10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AT10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AU10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AV10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AW10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AX10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AY10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AZ10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="BA10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>-5.27893918837794</v>
-      </c>
-      <c r="L11">
-        <v>6.25110471730157</v>
-      </c>
-      <c r="M11">
-        <v>-8.0930759205322</v>
-      </c>
-      <c r="N11">
-        <v>8.296896928314457</v>
-      </c>
-      <c r="O11">
-        <v>7.942828065321739</v>
-      </c>
-      <c r="P11">
-        <v>3.900127535411246</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>3.948953894481622</v>
+        <v>6.974907992138002</v>
       </c>
       <c r="R11">
-        <v>4.13564488769782</v>
+        <v>-1.293988319237949</v>
       </c>
       <c r="S11">
-        <v>4.13564488769782</v>
+        <v>9.631040506010535</v>
       </c>
       <c r="T11">
-        <v>4.13564488769782</v>
+        <v>0.5033587260849126</v>
       </c>
       <c r="U11">
-        <v>4.13564488769782</v>
+        <v>4.115488239647735</v>
       </c>
       <c r="V11">
-        <v>4.13564488769782</v>
+        <v>3.408364488606752</v>
       </c>
       <c r="W11">
-        <v>4.13564488769782</v>
+        <v>2.964724359563808</v>
       </c>
       <c r="X11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="Y11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="Z11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AA11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AB11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AC11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AD11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AE11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AF11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AG11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AH11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AI11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AJ11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AK11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AL11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AM11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AN11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AO11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AP11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AQ11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AR11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AS11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AT11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AU11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AV11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AW11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AX11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AY11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AZ11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="BA11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>-8.093075920532222</v>
-      </c>
-      <c r="N12">
-        <v>9.767994967583338</v>
-      </c>
-      <c r="O12">
-        <v>15.37760125310905</v>
-      </c>
-      <c r="P12">
-        <v>-2.092856741436233</v>
-      </c>
-      <c r="Q12">
-        <v>1.913895196850168</v>
-      </c>
-      <c r="R12">
-        <v>0.03947433952959933</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>-0.3952646468157517</v>
+        <v>9.631040506010514</v>
       </c>
       <c r="T12">
-        <v>-0.5740767529984425</v>
+        <v>1.120895726300253</v>
       </c>
       <c r="U12">
-        <v>-0.8017097776176652</v>
+        <v>9.52305004616103</v>
       </c>
       <c r="V12">
-        <v>-0.8017097776176652</v>
+        <v>-0.3010260522302244</v>
       </c>
       <c r="W12">
-        <v>-0.8017097776176652</v>
+        <v>-0.1170030518464982</v>
       </c>
       <c r="X12">
-        <v>-0.8017097776176652</v>
+        <v>4.073811422566442</v>
       </c>
       <c r="Y12">
-        <v>-0.8017097776176652</v>
+        <v>2.573390224036864</v>
       </c>
       <c r="Z12">
-        <v>-0.8017097776176652</v>
+        <v>2.799070570134488</v>
       </c>
       <c r="AA12">
-        <v>-0.8017097776176652</v>
+        <v>2.127568629379395</v>
       </c>
       <c r="AB12">
-        <v>-0.8017097776176652</v>
+        <v>2.213463536809535</v>
       </c>
       <c r="AC12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AD12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AE12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AF12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AG12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AH12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AI12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AJ12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AK12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AL12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AM12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AN12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AO12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AP12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AQ12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AR12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AS12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AT12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AU12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AV12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AW12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AX12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AY12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AZ12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="BA12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>15.37760125310903</v>
-      </c>
-      <c r="P13">
-        <v>-1.385206263951644</v>
-      </c>
-      <c r="Q13">
-        <v>6.97490799213798</v>
-      </c>
-      <c r="R13">
-        <v>-1.259568900987018</v>
-      </c>
-      <c r="S13">
-        <v>4.861901970953975</v>
-      </c>
-      <c r="T13">
-        <v>2.192778679161944</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>2.496356089727536</v>
+        <v>9.523050046161075</v>
       </c>
       <c r="V13">
-        <v>2.496356089727536</v>
+        <v>-1.716812306871984</v>
       </c>
       <c r="W13">
-        <v>2.496356089727536</v>
+        <v>-1.421675245489573</v>
       </c>
       <c r="X13">
-        <v>2.496356089727536</v>
+        <v>8.549566886636839</v>
       </c>
       <c r="Y13">
-        <v>2.496356089727536</v>
+        <v>2.706783531850476</v>
       </c>
       <c r="Z13">
-        <v>2.496356089727536</v>
+        <v>3.825329033908798</v>
       </c>
       <c r="AA13">
-        <v>2.496356089727536</v>
+        <v>4.462957198457018</v>
       </c>
       <c r="AB13">
-        <v>2.496356089727536</v>
+        <v>5.264109583376908</v>
       </c>
       <c r="AC13">
-        <v>2.496356089727536</v>
+        <v>3.65644131722509</v>
       </c>
       <c r="AD13">
-        <v>2.496356089727536</v>
+        <v>4.195393191694419</v>
       </c>
       <c r="AE13">
-        <v>2.496356089727536</v>
+        <v>4.197154982163109</v>
       </c>
       <c r="AF13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AG13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AH13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AI13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AJ13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AK13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AL13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AM13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AN13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AO13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AP13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AQ13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AR13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AS13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AT13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AU13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AV13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AW13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AX13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AY13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AZ13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="BA13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>6.97490799213798</v>
-      </c>
-      <c r="R14">
-        <v>-1.293988319237949</v>
-      </c>
-      <c r="S14">
-        <v>9.631040506010535</v>
-      </c>
-      <c r="T14">
-        <v>0.5033587260849126</v>
-      </c>
-      <c r="U14">
-        <v>4.115488239647713</v>
-      </c>
-      <c r="V14">
-        <v>3.40836448860673</v>
-      </c>
-      <c r="W14">
-        <v>2.964724359563786</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>2.95568145425118</v>
+        <v>8.549566886636839</v>
       </c>
       <c r="Y14">
-        <v>2.95568145425118</v>
+        <v>2.458957480916335</v>
       </c>
       <c r="Z14">
-        <v>2.95568145425118</v>
+        <v>3.648892256099967</v>
       </c>
       <c r="AA14">
-        <v>2.95568145425118</v>
+        <v>5.237111551136597</v>
       </c>
       <c r="AB14">
-        <v>2.95568145425118</v>
+        <v>7.819356632099983</v>
       </c>
       <c r="AC14">
-        <v>2.95568145425118</v>
+        <v>-3.202316982060582</v>
       </c>
       <c r="AD14">
-        <v>2.95568145425118</v>
+        <v>3.942709467505678</v>
       </c>
       <c r="AE14">
-        <v>2.95568145425118</v>
+        <v>1.969952049420165</v>
       </c>
       <c r="AF14">
-        <v>2.95568145425118</v>
+        <v>6.942957493752444</v>
       </c>
       <c r="AG14">
-        <v>2.95568145425118</v>
+        <v>1.164487295548811</v>
       </c>
       <c r="AH14">
-        <v>2.95568145425118</v>
+        <v>1.666553973046025</v>
       </c>
       <c r="AI14">
-        <v>2.95568145425118</v>
+        <v>1.261381996797706</v>
       </c>
       <c r="AJ14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AK14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AL14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AM14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AN14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AO14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AP14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AQ14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AR14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AS14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AT14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AU14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AV14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AW14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AX14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AY14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AZ14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="BA14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>9.631040506010557</v>
-      </c>
-      <c r="T15">
-        <v>1.120895726300208</v>
-      </c>
-      <c r="U15">
-        <v>9.523050046161053</v>
-      </c>
-      <c r="V15">
-        <v>-0.3010260522302355</v>
-      </c>
-      <c r="W15">
-        <v>-0.117003051846476</v>
-      </c>
-      <c r="X15">
-        <v>4.07381142256642</v>
-      </c>
-      <c r="Y15">
-        <v>2.573390224036864</v>
-      </c>
-      <c r="Z15">
-        <v>2.799070570134488</v>
-      </c>
-      <c r="AA15">
-        <v>2.127568629379395</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>2.213463536809535</v>
+        <v>7.819356632099961</v>
       </c>
       <c r="AC15">
-        <v>2.115640452469369</v>
+        <v>-4.042878784449533</v>
       </c>
       <c r="AD15">
-        <v>2.115640452469369</v>
+        <v>4.775121909359314</v>
       </c>
       <c r="AE15">
-        <v>2.115640452469369</v>
+        <v>2.423519345863312</v>
       </c>
       <c r="AF15">
-        <v>2.115640452469369</v>
+        <v>17.43645097609996</v>
       </c>
       <c r="AG15">
-        <v>2.115640452469369</v>
+        <v>-13.80331328666086</v>
       </c>
       <c r="AH15">
-        <v>2.115640452469369</v>
+        <v>-7.134843267358049</v>
       </c>
       <c r="AI15">
-        <v>2.115640452469369</v>
+        <v>2.473469344955737</v>
       </c>
       <c r="AJ15">
-        <v>2.115640452469369</v>
+        <v>3.285232806602423</v>
       </c>
       <c r="AK15">
-        <v>2.115640452469369</v>
+        <v>1.566171461167398</v>
       </c>
       <c r="AL15">
-        <v>2.115640452469369</v>
+        <v>1.879266440112781</v>
       </c>
       <c r="AM15">
-        <v>2.115640452469369</v>
+        <v>1.630705607582295</v>
       </c>
       <c r="AN15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AO15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AP15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AQ15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AR15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AS15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AT15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AU15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AV15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AW15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AX15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AY15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AZ15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="BA15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>9.523050046161053</v>
-      </c>
-      <c r="V16">
-        <v>-1.716812306871951</v>
-      </c>
-      <c r="W16">
-        <v>-1.421675245489551</v>
-      </c>
-      <c r="X16">
-        <v>8.54956688663686</v>
-      </c>
-      <c r="Y16">
-        <v>2.706783531850476</v>
-      </c>
-      <c r="Z16">
-        <v>3.825329033908775</v>
-      </c>
-      <c r="AA16">
-        <v>4.46295719845704</v>
-      </c>
-      <c r="AB16">
-        <v>5.264109583376908</v>
-      </c>
-      <c r="AC16">
-        <v>3.656441317225112</v>
-      </c>
-      <c r="AD16">
-        <v>4.195393191694419</v>
-      </c>
-      <c r="AE16">
-        <v>4.197154982163109</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>4.186780469526963</v>
+        <v>17.43645097609996</v>
       </c>
       <c r="AG16">
-        <v>4.186780469526963</v>
+        <v>-15.84873744315486</v>
       </c>
       <c r="AH16">
-        <v>4.186780469526963</v>
+        <v>-7.63969334092236</v>
       </c>
       <c r="AI16">
-        <v>4.186780469526963</v>
+        <v>7.549216998964559</v>
       </c>
       <c r="AJ16">
-        <v>4.186780469526963</v>
+        <v>4.648946574958668</v>
       </c>
       <c r="AK16">
-        <v>4.186780469526963</v>
+        <v>0.9875809772451616</v>
       </c>
       <c r="AL16">
-        <v>4.186780469526963</v>
+        <v>-6.539839435602913</v>
       </c>
       <c r="AM16">
-        <v>4.186780469526963</v>
+        <v>-1.781446606796444</v>
       </c>
       <c r="AN16">
-        <v>4.186780469526963</v>
+        <v>4.03207823671119</v>
       </c>
       <c r="AO16">
-        <v>4.186780469526963</v>
+        <v>-3.159022715375703</v>
       </c>
       <c r="AP16">
-        <v>4.186780469526963</v>
+        <v>-2.620683231370935</v>
       </c>
       <c r="AQ16">
-        <v>4.186780469526963</v>
+        <v>-2.165543638380429</v>
       </c>
       <c r="AR16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AS16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AT16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AU16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AV16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AW16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AX16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AY16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AZ16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="BA16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>8.549566886636883</v>
-      </c>
-      <c r="Y17">
-        <v>2.458957480916335</v>
-      </c>
-      <c r="Z17">
-        <v>3.648892256099967</v>
-      </c>
-      <c r="AA17">
-        <v>5.237111551136597</v>
-      </c>
-      <c r="AB17">
-        <v>7.819356632099961</v>
-      </c>
-      <c r="AC17">
-        <v>-3.202316982060605</v>
-      </c>
-      <c r="AD17">
-        <v>3.942709467505678</v>
-      </c>
-      <c r="AE17">
-        <v>1.969952049420165</v>
-      </c>
-      <c r="AF17">
-        <v>6.942957493752444</v>
-      </c>
-      <c r="AG17">
-        <v>1.164487295548811</v>
-      </c>
-      <c r="AH17">
-        <v>1.666553973046048</v>
-      </c>
-      <c r="AI17">
-        <v>1.261381996797728</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>1.258580382129693</v>
+        <v>4.648946574958646</v>
       </c>
       <c r="AK17">
-        <v>1.258580382129693</v>
+        <v>1.116210619940317</v>
       </c>
       <c r="AL17">
-        <v>1.258580382129693</v>
+        <v>-9.02244416000274</v>
       </c>
       <c r="AM17">
-        <v>1.258580382129693</v>
+        <v>0.1457978421785855</v>
       </c>
       <c r="AN17">
-        <v>1.258580382129693</v>
+        <v>19.81459356491751</v>
       </c>
       <c r="AO17">
-        <v>1.258580382129693</v>
+        <v>-11.32548012975855</v>
       </c>
       <c r="AP17">
-        <v>1.258580382129693</v>
+        <v>-5.419975784955122</v>
       </c>
       <c r="AQ17">
-        <v>1.258580382129693</v>
+        <v>-8.265777451316225</v>
       </c>
       <c r="AR17">
-        <v>1.258580382129693</v>
+        <v>1.16693824877212</v>
       </c>
       <c r="AS17">
-        <v>1.258580382129693</v>
+        <v>-2.536896655888543</v>
       </c>
       <c r="AT17">
-        <v>1.258580382129693</v>
+        <v>-3.036556262700263</v>
       </c>
       <c r="AU17">
-        <v>1.258580382129693</v>
+        <v>-3.961493391105475</v>
       </c>
       <c r="AV17">
-        <v>1.258580382129693</v>
+        <v>-3.961484026309636</v>
       </c>
       <c r="AW17">
-        <v>1.258580382129693</v>
+        <v>-3.961484026309636</v>
       </c>
       <c r="AX17">
-        <v>1.258580382129693</v>
+        <v>-3.961484026309636</v>
       </c>
       <c r="AY17">
-        <v>1.258580382129693</v>
+        <v>-3.961484026309636</v>
       </c>
       <c r="AZ17">
-        <v>1.258580382129693</v>
+        <v>-3.961484026309636</v>
       </c>
       <c r="BA17">
-        <v>1.258580382129693</v>
+        <v>-3.961484026309636</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>7.819356632099961</v>
-      </c>
-      <c r="AC18">
-        <v>-4.042878784449544</v>
-      </c>
-      <c r="AD18">
-        <v>4.775121909359337</v>
-      </c>
-      <c r="AE18">
-        <v>2.423519345863356</v>
-      </c>
-      <c r="AF18">
-        <v>17.43645097609996</v>
-      </c>
-      <c r="AG18">
-        <v>-13.80331328666087</v>
-      </c>
-      <c r="AH18">
-        <v>-7.134843267358026</v>
-      </c>
-      <c r="AI18">
-        <v>2.473469344955737</v>
-      </c>
-      <c r="AJ18">
-        <v>3.285232806602445</v>
-      </c>
-      <c r="AK18">
-        <v>1.56617146116742</v>
-      </c>
-      <c r="AL18">
-        <v>1.879266440112803</v>
-      </c>
-      <c r="AM18">
-        <v>1.630705607582317</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>1.362828756617751</v>
+        <v>19.81459356491751</v>
       </c>
       <c r="AO18">
-        <v>1.362828756617751</v>
+        <v>-12.78384719316787</v>
       </c>
       <c r="AP18">
-        <v>1.362828756617751</v>
+        <v>-5.609921819622043</v>
       </c>
       <c r="AQ18">
-        <v>1.362828756617751</v>
+        <v>-10.92701686886082</v>
       </c>
       <c r="AR18">
-        <v>1.362828756617751</v>
+        <v>16.68718678695833</v>
       </c>
       <c r="AS18">
-        <v>1.362828756617751</v>
+        <v>1.532774510490742</v>
       </c>
       <c r="AT18">
-        <v>1.362828756617751</v>
+        <v>1.613705666912457</v>
       </c>
       <c r="AU18">
-        <v>1.362828756617751</v>
+        <v>-4.691918671600925</v>
       </c>
       <c r="AV18">
-        <v>1.362828756617751</v>
+        <v>1.758584501904181</v>
       </c>
       <c r="AW18">
-        <v>1.362828756617751</v>
+        <v>-3.187937113772665</v>
       </c>
       <c r="AX18">
-        <v>1.362828756617751</v>
+        <v>-2.953443685011514</v>
       </c>
       <c r="AY18">
-        <v>1.362828756617751</v>
+        <v>-2.939620051521785</v>
       </c>
       <c r="AZ18">
-        <v>1.362828756617751</v>
+        <v>-2.899559879361435</v>
       </c>
       <c r="BA18">
-        <v>1.362828756617751</v>
+        <v>-2.899559879361435</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>17.43645097609996</v>
-      </c>
-      <c r="AG19">
-        <v>-15.84873744315486</v>
-      </c>
-      <c r="AH19">
-        <v>-7.639693340922394</v>
-      </c>
-      <c r="AI19">
-        <v>7.549216998964536</v>
-      </c>
-      <c r="AJ19">
-        <v>4.648946574958646</v>
-      </c>
-      <c r="AK19">
-        <v>0.9875809772451838</v>
-      </c>
-      <c r="AL19">
-        <v>-6.539839435602945</v>
-      </c>
-      <c r="AM19">
-        <v>-1.781446606796455</v>
-      </c>
-      <c r="AN19">
-        <v>4.03207823671119</v>
-      </c>
-      <c r="AO19">
-        <v>-3.159022715375703</v>
-      </c>
-      <c r="AP19">
-        <v>-2.620683231370946</v>
-      </c>
-      <c r="AQ19">
-        <v>-2.165543638380452</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>-2.151676542405412</v>
+        <v>16.68718678695833</v>
       </c>
       <c r="AS19">
-        <v>-2.151676542405412</v>
+        <v>0.9350043511181738</v>
       </c>
       <c r="AT19">
-        <v>-2.151676542405412</v>
+        <v>1.741055737501429</v>
       </c>
       <c r="AU19">
-        <v>-2.151676542405412</v>
+        <v>-6.71087780539289</v>
       </c>
       <c r="AV19">
-        <v>-2.151676542405412</v>
+        <v>11.30020092100839</v>
       </c>
       <c r="AW19">
-        <v>-2.151676542405412</v>
+        <v>-7.130744761216423</v>
       </c>
       <c r="AX19">
-        <v>-2.151676542405412</v>
+        <v>-2.069018842407955</v>
       </c>
       <c r="AY19">
-        <v>-2.151676542405412</v>
+        <v>1.303232119845266</v>
       </c>
       <c r="AZ19">
-        <v>-2.151676542405412</v>
+        <v>0.5908161348962437</v>
       </c>
       <c r="BA19">
-        <v>-2.151676542405412</v>
+        <v>-1.60374568949776</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>4.648946574958646</v>
-      </c>
-      <c r="AK20">
-        <v>1.116210619940317</v>
-      </c>
-      <c r="AL20">
-        <v>-9.022444160002753</v>
-      </c>
-      <c r="AM20">
-        <v>0.1457978421785855</v>
-      </c>
-      <c r="AN20">
-        <v>19.81459356491751</v>
-      </c>
-      <c r="AO20">
-        <v>-11.32548012975856</v>
-      </c>
-      <c r="AP20">
-        <v>-5.419975784955133</v>
-      </c>
-      <c r="AQ20">
-        <v>-8.265777451316225</v>
-      </c>
-      <c r="AR20">
-        <v>1.166938248772098</v>
-      </c>
-      <c r="AS20">
-        <v>-2.536896655888554</v>
-      </c>
-      <c r="AT20">
-        <v>-3.036556262700274</v>
-      </c>
-      <c r="AU20">
-        <v>-3.961493391105464</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>-3.961484026309647</v>
+        <v>11.30020092100836</v>
       </c>
       <c r="AW20">
-        <v>-3.961484026309647</v>
+        <v>-7.793783992534198</v>
       </c>
       <c r="AX20">
-        <v>-3.961484026309647</v>
+        <v>-1.378691486317696</v>
       </c>
       <c r="AY20">
-        <v>-3.961484026309647</v>
+        <v>4.240665037474822</v>
       </c>
       <c r="AZ20">
-        <v>-3.961484026309647</v>
+        <v>2.127099006366806</v>
       </c>
       <c r="BA20">
-        <v>-3.961484026309647</v>
+        <v>-7.500482081224535</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>19.81459356491753</v>
-      </c>
-      <c r="AO21">
-        <v>-12.78384719316791</v>
-      </c>
-      <c r="AP21">
-        <v>-5.609921819622055</v>
-      </c>
-      <c r="AQ21">
-        <v>-10.92701686886082</v>
-      </c>
-      <c r="AR21">
-        <v>16.68718678695835</v>
-      </c>
-      <c r="AS21">
-        <v>1.532774510490742</v>
-      </c>
-      <c r="AT21">
-        <v>1.613705666912457</v>
-      </c>
-      <c r="AU21">
-        <v>-4.691918671600959</v>
-      </c>
-      <c r="AV21">
-        <v>1.758584501904159</v>
-      </c>
-      <c r="AW21">
-        <v>-3.187937113772676</v>
-      </c>
-      <c r="AX21">
-        <v>-2.953443685011514</v>
-      </c>
-      <c r="AY21">
-        <v>-2.939620051521785</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>-2.899559879361424</v>
+        <v>2.127099006366784</v>
       </c>
       <c r="BA21">
-        <v>-2.899559879361424</v>
+        <v>-8.039426590486908</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>16.68718678695833</v>
-      </c>
-      <c r="AS22">
-        <v>0.9350043511181738</v>
-      </c>
-      <c r="AT22">
-        <v>1.741055737501407</v>
-      </c>
-      <c r="AU22">
-        <v>-6.710877805392867</v>
-      </c>
-      <c r="AV22">
-        <v>11.30020092100839</v>
-      </c>
-      <c r="AW22">
-        <v>-7.130744761216434</v>
-      </c>
-      <c r="AX22">
-        <v>-2.069018842407955</v>
-      </c>
-      <c r="AY22">
-        <v>1.303232119845266</v>
-      </c>
-      <c r="AZ22">
-        <v>0.5908161348962215</v>
-      </c>
-      <c r="BA22">
-        <v>-1.60374568949776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>11.30020092100841</v>
-      </c>
-      <c r="AW23">
-        <v>-7.79378399253422</v>
-      </c>
-      <c r="AX23">
-        <v>-1.378691486317696</v>
-      </c>
-      <c r="AY23">
-        <v>4.240665037474844</v>
-      </c>
-      <c r="AZ23">
-        <v>2.127099006366806</v>
-      </c>
-      <c r="BA23">
-        <v>-7.500482081224524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>2.127099006366828</v>
-      </c>
-      <c r="BA24">
-        <v>-8.039426590486908</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AVERAGE_1_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="BA3">
         <v>-3.712113773657133</v>
       </c>
+      <c r="BB3">
+        <v>-3.712113773657133</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -856,8 +862,11 @@
       <c r="BA4">
         <v>2.363997455008704</v>
       </c>
+      <c r="BB4">
+        <v>2.363997455008704</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -1008,8 +1017,11 @@
       <c r="BA5">
         <v>6.087058041562399</v>
       </c>
+      <c r="BB5">
+        <v>6.087058041562399</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1154,8 +1166,11 @@
       <c r="BA6">
         <v>3.831642495756782</v>
       </c>
+      <c r="BB6">
+        <v>3.831642495756782</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1294,8 +1309,11 @@
       <c r="BA7">
         <v>-0.492746714819392</v>
       </c>
+      <c r="BB7">
+        <v>-0.492746714819392</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1428,8 +1446,11 @@
       <c r="BA8">
         <v>4.135644887697842</v>
       </c>
+      <c r="BB8">
+        <v>4.135644887697842</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1556,8 +1577,11 @@
       <c r="BA9">
         <v>-0.8017097776176652</v>
       </c>
+      <c r="BB9">
+        <v>-0.8017097776176652</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1678,8 +1702,11 @@
       <c r="BA10">
         <v>2.496356089727558</v>
       </c>
+      <c r="BB10">
+        <v>2.496356089727558</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="BA11">
         <v>2.955681454251202</v>
       </c>
+      <c r="BB11">
+        <v>2.955681454251202</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1904,8 +1934,11 @@
       <c r="BA12">
         <v>2.115640452469392</v>
       </c>
+      <c r="BB12">
+        <v>2.115640452469392</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2008,8 +2041,11 @@
       <c r="BA13">
         <v>4.186780469526941</v>
       </c>
+      <c r="BB13">
+        <v>4.186780469526941</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2103,8 +2139,11 @@
       <c r="BA14">
         <v>1.25858038212967</v>
       </c>
+      <c r="BB14">
+        <v>1.25858038212967</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2186,8 +2225,11 @@
       <c r="BA15">
         <v>1.362828756617751</v>
       </c>
+      <c r="BB15">
+        <v>1.362828756617751</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2257,8 +2299,11 @@
       <c r="BA16">
         <v>-2.151676542405401</v>
       </c>
+      <c r="BB16">
+        <v>-2.151676542405401</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2316,8 +2361,11 @@
       <c r="BA17">
         <v>-3.961484026309636</v>
       </c>
+      <c r="BB17">
+        <v>-3.961484026309636</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2363,8 +2411,11 @@
       <c r="BA18">
         <v>-2.899559879361435</v>
       </c>
+      <c r="BB18">
+        <v>-2.899559879361435</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2398,8 +2449,11 @@
       <c r="BA19">
         <v>-1.60374568949776</v>
       </c>
+      <c r="BB19">
+        <v>-0.7200474048664085</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="BA20">
         <v>-7.500482081224535</v>
       </c>
+      <c r="BB20">
+        <v>-2.055952042396259</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2432,8 +2489,11 @@
       <c r="BA21">
         <v>-8.039426590486908</v>
       </c>
+      <c r="BB21">
+        <v>-1.903101968663912</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
